--- a/AkioAI/race_demo/中山芝1200.xlsx
+++ b/AkioAI/race_demo/中山芝1200.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5263157894736842</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -451,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4210526315789473</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C3">
         <v>0.1052631578947368</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2105263157894737</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="F3">
         <v>0.6842105263157895</v>
@@ -474,13 +474,13 @@
         <v>0.4210526315789473</v>
       </c>
       <c r="C4">
-        <v>0.2105263157894737</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="D4">
-        <v>0.1052631578947368</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="E4">
-        <v>0.3157894736842105</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="F4">
         <v>0.7894736842105263</v>
@@ -491,19 +491,19 @@
         <v>4</v>
       </c>
       <c r="B5">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="C5">
         <v>0.4736842105263158</v>
       </c>
-      <c r="C5">
-        <v>0.2631578947368421</v>
-      </c>
       <c r="D5">
-        <v>0.1578947368421053</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="E5">
-        <v>0.5263157894736842</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="F5">
-        <v>0.8421052631578947</v>
+        <v>0.7894736842105263</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -511,10 +511,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.5789473684210527</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C6">
-        <v>0.4736842105263158</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D6">
         <v>0.2631578947368421</v>
@@ -523,7 +523,7 @@
         <v>0.631578947368421</v>
       </c>
       <c r="F6">
-        <v>0.9473684210526315</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -534,13 +534,13 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="C7">
-        <v>0.5789473684210527</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D7">
         <v>0.2631578947368421</v>
       </c>
       <c r="E7">
-        <v>0.8421052631578947</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="F7">
         <v>0.9473684210526315</v>
@@ -554,13 +554,13 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="C8">
-        <v>0.631578947368421</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D8">
         <v>0.3157894736842105</v>
       </c>
       <c r="E8">
-        <v>0.8947368421052632</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="F8">
         <v>0.9473684210526315</v>
@@ -571,16 +571,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.6842105263157895</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
         <v>0.631578947368421</v>
       </c>
       <c r="D9">
-        <v>0.3157894736842105</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="E9">
-        <v>0.9473684210526315</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="F9">
         <v>0.9473684210526315</v>
@@ -591,16 +591,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.8421052631578947</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C10">
-        <v>0.7894736842105263</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D10">
-        <v>0.5789473684210527</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="E10">
-        <v>0.9473684210526315</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="F10">
         <v>0.9473684210526315</v>
@@ -614,16 +614,16 @@
         <v>0.8421052631578947</v>
       </c>
       <c r="C11">
-        <v>0.7894736842105263</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="D11">
-        <v>0.6842105263157895</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E11">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="F11">
         <v>0.9473684210526315</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -637,13 +637,13 @@
         <v>0.8421052631578947</v>
       </c>
       <c r="D12">
-        <v>0.7368421052631579</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="E12">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="F12">
         <v>0.9473684210526315</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -657,7 +657,7 @@
         <v>0.8947368421052632</v>
       </c>
       <c r="D13">
-        <v>0.8947368421052632</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="E13">
         <v>0.9473684210526315</v>
@@ -689,7 +689,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>4255.833333333333</v>
+        <v>1772.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -697,7 +697,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>9542.5</v>
+        <v>2911.666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -705,7 +705,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>22904.16666666667</v>
+        <v>11827.5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -713,7 +713,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>114359.1666666667</v>
+        <v>49704.16666666666</v>
       </c>
     </row>
   </sheetData>
@@ -765,10 +765,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>347.9824561403508</v>
+        <v>86.57894736842104</v>
       </c>
       <c r="C3">
-        <v>804.4736842105262</v>
+        <v>106.4912280701754</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -782,16 +782,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>595.9649122807017</v>
+        <v>166.4473684210526</v>
       </c>
       <c r="C4">
-        <v>1408.947368421052</v>
+        <v>166.2280701754385</v>
       </c>
       <c r="D4">
-        <v>2310.964912280702</v>
+        <v>522.5</v>
       </c>
       <c r="E4">
-        <v>11437.80701754386</v>
+        <v>2016.008771929824</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -799,16 +799,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>519.9561403508771</v>
+        <v>239.6052631578947</v>
       </c>
       <c r="C5">
-        <v>1311.184210526316</v>
+        <v>179.2105263157894</v>
       </c>
       <c r="D5">
-        <v>3216.447368421052</v>
+        <v>2090</v>
       </c>
       <c r="E5">
-        <v>15656.71052631579</v>
+        <v>8064.035087719298</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -816,16 +816,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1015.921052631579</v>
+        <v>-67.1052631578948</v>
       </c>
       <c r="C6">
-        <v>2520.131578947368</v>
+        <v>-467.5438596491231</v>
       </c>
       <c r="D6">
-        <v>5027.412280701755</v>
+        <v>2112.5</v>
       </c>
       <c r="E6">
-        <v>24094.51754385965</v>
+        <v>7080.043859649122</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -833,16 +833,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>963.9035087719299</v>
+        <v>-567.1052631578948</v>
       </c>
       <c r="C7">
-        <v>2524.605263157895</v>
+        <v>-1467.543859649123</v>
       </c>
       <c r="D7">
-        <v>4027.412280701755</v>
+        <v>1112.5</v>
       </c>
       <c r="E7">
-        <v>18094.51754385965</v>
+        <v>1080.043859649122</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -850,16 +850,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>587.894736842105</v>
+        <v>-1167.105263157895</v>
       </c>
       <c r="C8">
-        <v>1826.842105263157</v>
+        <v>-2667.543859649123</v>
       </c>
       <c r="D8">
-        <v>3732.894736842105</v>
+        <v>235</v>
       </c>
       <c r="E8">
-        <v>15113.42105263158</v>
+        <v>-5303.947368421053</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -867,16 +867,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-112.105263157895</v>
+        <v>-1680.526315789474</v>
       </c>
       <c r="C9">
-        <v>426.8421052631575</v>
+        <v>-3761.052631578948</v>
       </c>
       <c r="D9">
-        <v>1632.894736842105</v>
+        <v>-1242.5</v>
       </c>
       <c r="E9">
-        <v>2513.42105263158</v>
+        <v>-15287.93859649123</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -884,16 +884,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-240.1315789473688</v>
+        <v>-2293.947368421052</v>
       </c>
       <c r="C10">
-        <v>333.5526315789475</v>
+        <v>-5054.561403508772</v>
       </c>
       <c r="D10">
-        <v>4860.307017543861</v>
+        <v>-2797.5</v>
       </c>
       <c r="E10">
-        <v>12207.93859649124</v>
+        <v>-30455.92105263158</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -901,16 +901,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-1140.131578947369</v>
+        <v>-3007.368421052632</v>
       </c>
       <c r="C11">
-        <v>-1466.447368421052</v>
+        <v>-6548.070175438597</v>
       </c>
       <c r="D11">
-        <v>3671.271929824563</v>
+        <v>-4530</v>
       </c>
       <c r="E11">
-        <v>6245.745614035099</v>
+        <v>-40607.89473684211</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -918,16 +918,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-1916.140350877193</v>
+        <v>-4007.368421052632</v>
       </c>
       <c r="C12">
-        <v>-2964.21052631579</v>
+        <v>-8548.070175438597</v>
       </c>
       <c r="D12">
-        <v>376.7543859649122</v>
+        <v>-7162.5</v>
       </c>
       <c r="E12">
-        <v>-14735.35087719298</v>
+        <v>-59759.86842105263</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -935,16 +935,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-2792.149122807018</v>
+        <v>-5014.078947368421</v>
       </c>
       <c r="C13">
-        <v>-4661.973684210527</v>
+        <v>-10594.82456140351</v>
       </c>
       <c r="D13">
-        <v>-1506.798245614034</v>
+        <v>-12040</v>
       </c>
       <c r="E13">
-        <v>-29678.64035087719</v>
+        <v>-90143.85964912281</v>
       </c>
     </row>
   </sheetData>
